--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/R209_SAV_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/R209_SAV_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1076" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3228" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,33 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="7">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +153,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +183,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="6" customFormat="true">
+      <c r="A1" t="s" s="6">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="6">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="6">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="6">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="6">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="6">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="6">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +230,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="2">
+      <c r="C3" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +276,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -535,10 +559,10 @@
       <c r="I14">
         <f>((C14-C13)^2+(D14- D13)^2)^.5</f>
       </c>
-      <c r="J14" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K14" s="2" t="s">
+      <c r="J14" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K14" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L14" t="n">
@@ -582,28 +606,28 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="s" s="2">
+      <c r="A16" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B16" t="s" s="2">
+      <c r="B16" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C16" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D16" t="s" s="2">
+      <c r="C16" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D16" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E16" t="s" s="2">
+      <c r="E16" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F16" t="s" s="2">
+      <c r="F16" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G16" t="s" s="2">
+      <c r="G16" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H16" t="s" s="2">
+      <c r="H16" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -628,28 +652,28 @@
       </c>
     </row>
     <row r="18">
-      <c r="B18" t="s" s="2">
+      <c r="B18" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C18" t="s" s="2">
+      <c r="C18" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D18" t="s" s="2">
+      <c r="D18" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E18" t="s" s="2">
+      <c r="E18" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F18" t="s" s="2">
+      <c r="F18" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G18" t="s" s="2">
+      <c r="G18" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H18" t="s" s="2">
+      <c r="H18" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I18" t="s" s="2">
+      <c r="I18" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -824,10 +848,10 @@
       <c r="I24">
         <f>((C24-C23)^2+(D24- D23)^2)^.5</f>
       </c>
-      <c r="J24" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K24" s="2" t="s">
+      <c r="J24" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K24" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L24" t="n">
@@ -871,28 +895,28 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="s" s="2">
+      <c r="A26" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B26" t="s" s="2">
+      <c r="B26" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C26" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D26" t="s" s="2">
+      <c r="C26" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D26" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E26" t="s" s="2">
+      <c r="E26" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F26" t="s" s="2">
+      <c r="F26" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G26" t="s" s="2">
+      <c r="G26" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H26" t="s" s="2">
+      <c r="H26" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -917,28 +941,28 @@
       </c>
     </row>
     <row r="28">
-      <c r="B28" t="s" s="2">
+      <c r="B28" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C28" t="s" s="2">
+      <c r="C28" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D28" t="s" s="2">
+      <c r="D28" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E28" t="s" s="2">
+      <c r="E28" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F28" t="s" s="2">
+      <c r="F28" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G28" t="s" s="2">
+      <c r="G28" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H28" t="s" s="2">
+      <c r="H28" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I28" t="s" s="2">
+      <c r="I28" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -1055,10 +1079,10 @@
       <c r="I32">
         <f>((C32-C31)^2+(D32- D31)^2)^.5</f>
       </c>
-      <c r="J32" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K32" s="2" t="s">
+      <c r="J32" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K32" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L32" t="n">
@@ -1102,28 +1126,28 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="s" s="2">
+      <c r="A34" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B34" t="s" s="2">
+      <c r="B34" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C34" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D34" t="s" s="2">
+      <c r="C34" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D34" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E34" t="s" s="2">
+      <c r="E34" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F34" t="s" s="2">
+      <c r="F34" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G34" t="s" s="2">
+      <c r="G34" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H34" t="s" s="2">
+      <c r="H34" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -1148,28 +1172,28 @@
       </c>
     </row>
     <row r="36">
-      <c r="B36" t="s" s="2">
+      <c r="B36" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C36" t="s" s="2">
+      <c r="C36" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D36" t="s" s="2">
+      <c r="D36" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E36" t="s" s="2">
+      <c r="E36" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F36" t="s" s="2">
+      <c r="F36" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G36" t="s" s="2">
+      <c r="G36" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H36" t="s" s="2">
+      <c r="H36" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I36" t="s" s="2">
+      <c r="I36" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -1286,10 +1310,10 @@
       <c r="I40">
         <f>((C40-C39)^2+(D40- D39)^2)^.5</f>
       </c>
-      <c r="J40" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K40" s="2" t="s">
+      <c r="J40" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K40" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L40" t="n">
@@ -1333,28 +1357,28 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="s" s="2">
+      <c r="A42" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B42" t="s" s="2">
+      <c r="B42" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C42" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D42" t="s" s="2">
+      <c r="C42" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D42" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E42" t="s" s="2">
+      <c r="E42" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F42" t="s" s="2">
+      <c r="F42" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G42" t="s" s="2">
+      <c r="G42" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H42" t="s" s="2">
+      <c r="H42" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -1379,28 +1403,28 @@
       </c>
     </row>
     <row r="44">
-      <c r="B44" t="s" s="2">
+      <c r="B44" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C44" t="s" s="2">
+      <c r="C44" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D44" t="s" s="2">
+      <c r="D44" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E44" t="s" s="2">
+      <c r="E44" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F44" t="s" s="2">
+      <c r="F44" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G44" t="s" s="2">
+      <c r="G44" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H44" t="s" s="2">
+      <c r="H44" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I44" t="s" s="2">
+      <c r="I44" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -1691,10 +1715,10 @@
       <c r="I54">
         <f>((C54-C53)^2+(D54- D53)^2)^.5</f>
       </c>
-      <c r="J54" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K54" s="2" t="s">
+      <c r="J54" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K54" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L54" t="n">
@@ -1738,28 +1762,28 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="s" s="2">
+      <c r="A56" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B56" t="s" s="2">
+      <c r="B56" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C56" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D56" t="s" s="2">
+      <c r="C56" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D56" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E56" t="s" s="2">
+      <c r="E56" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F56" t="s" s="2">
+      <c r="F56" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G56" t="s" s="2">
+      <c r="G56" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H56" t="s" s="2">
+      <c r="H56" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -1784,28 +1808,28 @@
       </c>
     </row>
     <row r="58">
-      <c r="B58" t="s" s="2">
+      <c r="B58" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C58" t="s" s="2">
+      <c r="C58" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D58" t="s" s="2">
+      <c r="D58" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E58" t="s" s="2">
+      <c r="E58" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F58" t="s" s="2">
+      <c r="F58" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G58" t="s" s="2">
+      <c r="G58" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H58" t="s" s="2">
+      <c r="H58" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I58" t="s" s="2">
+      <c r="I58" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -1922,10 +1946,10 @@
       <c r="I62">
         <f>((C62-C61)^2+(D62- D61)^2)^.5</f>
       </c>
-      <c r="J62" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K62" s="2" t="s">
+      <c r="J62" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K62" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L62" t="n">
@@ -1969,28 +1993,28 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="s" s="2">
+      <c r="A64" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B64" t="s" s="2">
+      <c r="B64" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C64" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D64" t="s" s="2">
+      <c r="C64" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D64" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E64" t="s" s="2">
+      <c r="E64" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F64" t="s" s="2">
+      <c r="F64" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G64" t="s" s="2">
+      <c r="G64" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H64" t="s" s="2">
+      <c r="H64" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -2015,28 +2039,28 @@
       </c>
     </row>
     <row r="66">
-      <c r="B66" t="s" s="2">
+      <c r="B66" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C66" t="s" s="2">
+      <c r="C66" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D66" t="s" s="2">
+      <c r="D66" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E66" t="s" s="2">
+      <c r="E66" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F66" t="s" s="2">
+      <c r="F66" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G66" t="s" s="2">
+      <c r="G66" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H66" t="s" s="2">
+      <c r="H66" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I66" t="s" s="2">
+      <c r="I66" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -2124,10 +2148,10 @@
       <c r="I69">
         <f>((C69-C68)^2+(D69- D68)^2)^.5</f>
       </c>
-      <c r="J69" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K69" s="2" t="s">
+      <c r="J69" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K69" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L69" t="n">
@@ -2171,28 +2195,28 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="s" s="2">
+      <c r="A71" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B71" t="s" s="2">
+      <c r="B71" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C71" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D71" t="s" s="2">
+      <c r="C71" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D71" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E71" t="s" s="2">
+      <c r="E71" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F71" t="s" s="2">
+      <c r="F71" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G71" t="s" s="2">
+      <c r="G71" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H71" t="s" s="2">
+      <c r="H71" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -2217,28 +2241,28 @@
       </c>
     </row>
     <row r="73">
-      <c r="B73" t="s" s="2">
+      <c r="B73" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C73" t="s" s="2">
+      <c r="C73" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D73" t="s" s="2">
+      <c r="D73" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E73" t="s" s="2">
+      <c r="E73" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F73" t="s" s="2">
+      <c r="F73" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G73" t="s" s="2">
+      <c r="G73" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H73" t="s" s="2">
+      <c r="H73" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I73" t="s" s="2">
+      <c r="I73" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -2384,10 +2408,10 @@
       <c r="I78">
         <f>((C78-C77)^2+(D78- D77)^2)^.5</f>
       </c>
-      <c r="J78" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K78" s="2" t="s">
+      <c r="J78" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K78" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L78" t="n">
@@ -2431,28 +2455,28 @@
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="s" s="2">
+      <c r="A80" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B80" t="s" s="2">
+      <c r="B80" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C80" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D80" t="s" s="2">
+      <c r="C80" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D80" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E80" t="s" s="2">
+      <c r="E80" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F80" t="s" s="2">
+      <c r="F80" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G80" t="s" s="2">
+      <c r="G80" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H80" t="s" s="2">
+      <c r="H80" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -2477,28 +2501,28 @@
       </c>
     </row>
     <row r="82">
-      <c r="B82" t="s" s="2">
+      <c r="B82" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C82" t="s" s="2">
+      <c r="C82" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D82" t="s" s="2">
+      <c r="D82" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E82" t="s" s="2">
+      <c r="E82" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F82" t="s" s="2">
+      <c r="F82" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G82" t="s" s="2">
+      <c r="G82" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H82" t="s" s="2">
+      <c r="H82" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I82" t="s" s="2">
+      <c r="I82" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -2586,10 +2610,10 @@
       <c r="I85">
         <f>((C85-C84)^2+(D85- D84)^2)^.5</f>
       </c>
-      <c r="J85" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K85" s="2" t="s">
+      <c r="J85" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K85" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L85" t="n">
@@ -2633,28 +2657,28 @@
       </c>
     </row>
     <row r="87">
-      <c r="A87" t="s" s="2">
+      <c r="A87" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B87" t="s" s="2">
+      <c r="B87" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C87" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D87" t="s" s="2">
+      <c r="C87" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D87" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E87" t="s" s="2">
+      <c r="E87" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F87" t="s" s="2">
+      <c r="F87" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G87" t="s" s="2">
+      <c r="G87" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H87" t="s" s="2">
+      <c r="H87" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -2679,28 +2703,28 @@
       </c>
     </row>
     <row r="89">
-      <c r="B89" t="s" s="2">
+      <c r="B89" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C89" t="s" s="2">
+      <c r="C89" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D89" t="s" s="2">
+      <c r="D89" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E89" t="s" s="2">
+      <c r="E89" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F89" t="s" s="2">
+      <c r="F89" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G89" t="s" s="2">
+      <c r="G89" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H89" t="s" s="2">
+      <c r="H89" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I89" t="s" s="2">
+      <c r="I89" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -2846,10 +2870,10 @@
       <c r="I94">
         <f>((C94-C93)^2+(D94- D93)^2)^.5</f>
       </c>
-      <c r="J94" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K94" s="2" t="s">
+      <c r="J94" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K94" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L94" t="n">
@@ -2893,28 +2917,28 @@
       </c>
     </row>
     <row r="96">
-      <c r="A96" t="s" s="2">
+      <c r="A96" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B96" t="s" s="2">
+      <c r="B96" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C96" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D96" t="s" s="2">
+      <c r="C96" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D96" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E96" t="s" s="2">
+      <c r="E96" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F96" t="s" s="2">
+      <c r="F96" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G96" t="s" s="2">
+      <c r="G96" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H96" t="s" s="2">
+      <c r="H96" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -2939,28 +2963,28 @@
       </c>
     </row>
     <row r="98">
-      <c r="B98" t="s" s="2">
+      <c r="B98" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C98" t="s" s="2">
+      <c r="C98" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D98" t="s" s="2">
+      <c r="D98" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E98" t="s" s="2">
+      <c r="E98" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F98" t="s" s="2">
+      <c r="F98" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G98" t="s" s="2">
+      <c r="G98" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H98" t="s" s="2">
+      <c r="H98" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I98" t="s" s="2">
+      <c r="I98" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -3077,10 +3101,10 @@
       <c r="I102">
         <f>((C102-C101)^2+(D102- D101)^2)^.5</f>
       </c>
-      <c r="J102" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K102" s="2" t="s">
+      <c r="J102" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K102" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L102" t="n">
@@ -3124,28 +3148,28 @@
       </c>
     </row>
     <row r="104">
-      <c r="A104" t="s" s="2">
+      <c r="A104" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B104" t="s" s="2">
+      <c r="B104" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C104" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D104" t="s" s="2">
+      <c r="C104" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D104" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E104" t="s" s="2">
+      <c r="E104" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F104" t="s" s="2">
+      <c r="F104" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G104" t="s" s="2">
+      <c r="G104" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H104" t="s" s="2">
+      <c r="H104" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -3170,28 +3194,28 @@
       </c>
     </row>
     <row r="106">
-      <c r="B106" t="s" s="2">
+      <c r="B106" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C106" t="s" s="2">
+      <c r="C106" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D106" t="s" s="2">
+      <c r="D106" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E106" t="s" s="2">
+      <c r="E106" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F106" t="s" s="2">
+      <c r="F106" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G106" t="s" s="2">
+      <c r="G106" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H106" t="s" s="2">
+      <c r="H106" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I106" t="s" s="2">
+      <c r="I106" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -3424,10 +3448,10 @@
       <c r="I114">
         <f>((C114-C113)^2+(D114- D113)^2)^.5</f>
       </c>
-      <c r="J114" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K114" s="2" t="s">
+      <c r="J114" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K114" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L114" t="n">
@@ -3471,28 +3495,28 @@
       </c>
     </row>
     <row r="116">
-      <c r="A116" t="s" s="2">
+      <c r="A116" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B116" t="s" s="2">
+      <c r="B116" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C116" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D116" t="s" s="2">
+      <c r="C116" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D116" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E116" t="s" s="2">
+      <c r="E116" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F116" t="s" s="2">
+      <c r="F116" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G116" t="s" s="2">
+      <c r="G116" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H116" t="s" s="2">
+      <c r="H116" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -3517,28 +3541,28 @@
       </c>
     </row>
     <row r="118">
-      <c r="B118" t="s" s="2">
+      <c r="B118" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C118" t="s" s="2">
+      <c r="C118" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D118" t="s" s="2">
+      <c r="D118" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E118" t="s" s="2">
+      <c r="E118" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F118" t="s" s="2">
+      <c r="F118" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G118" t="s" s="2">
+      <c r="G118" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H118" t="s" s="2">
+      <c r="H118" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I118" t="s" s="2">
+      <c r="I118" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -3713,10 +3737,10 @@
       <c r="I124">
         <f>((C124-C123)^2+(D124- D123)^2)^.5</f>
       </c>
-      <c r="J124" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K124" s="2" t="s">
+      <c r="J124" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K124" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L124" t="n">
@@ -3760,28 +3784,28 @@
       </c>
     </row>
     <row r="126">
-      <c r="A126" t="s" s="2">
+      <c r="A126" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B126" t="s" s="2">
+      <c r="B126" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C126" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D126" t="s" s="2">
+      <c r="C126" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D126" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E126" t="s" s="2">
+      <c r="E126" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F126" t="s" s="2">
+      <c r="F126" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G126" t="s" s="2">
+      <c r="G126" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H126" t="s" s="2">
+      <c r="H126" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -3806,28 +3830,28 @@
       </c>
     </row>
     <row r="128">
-      <c r="B128" t="s" s="2">
+      <c r="B128" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C128" t="s" s="2">
+      <c r="C128" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D128" t="s" s="2">
+      <c r="D128" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E128" t="s" s="2">
+      <c r="E128" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F128" t="s" s="2">
+      <c r="F128" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G128" t="s" s="2">
+      <c r="G128" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H128" t="s" s="2">
+      <c r="H128" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I128" t="s" s="2">
+      <c r="I128" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -3915,10 +3939,10 @@
       <c r="I131">
         <f>((C131-C130)^2+(D131- D130)^2)^.5</f>
       </c>
-      <c r="J131" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K131" s="2" t="s">
+      <c r="J131" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K131" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L131" t="n">
@@ -3962,28 +3986,28 @@
       </c>
     </row>
     <row r="133">
-      <c r="A133" t="s" s="2">
+      <c r="A133" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B133" t="s" s="2">
+      <c r="B133" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C133" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D133" t="s" s="2">
+      <c r="C133" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D133" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E133" t="s" s="2">
+      <c r="E133" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F133" t="s" s="2">
+      <c r="F133" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G133" t="s" s="2">
+      <c r="G133" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H133" t="s" s="2">
+      <c r="H133" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -4008,28 +4032,28 @@
       </c>
     </row>
     <row r="135">
-      <c r="B135" t="s" s="2">
+      <c r="B135" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C135" t="s" s="2">
+      <c r="C135" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D135" t="s" s="2">
+      <c r="D135" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E135" t="s" s="2">
+      <c r="E135" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F135" t="s" s="2">
+      <c r="F135" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G135" t="s" s="2">
+      <c r="G135" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H135" t="s" s="2">
+      <c r="H135" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I135" t="s" s="2">
+      <c r="I135" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -4117,10 +4141,10 @@
       <c r="I138">
         <f>((C138-C137)^2+(D138- D137)^2)^.5</f>
       </c>
-      <c r="J138" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K138" s="2" t="s">
+      <c r="J138" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K138" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L138" t="n">
@@ -4164,28 +4188,28 @@
       </c>
     </row>
     <row r="140">
-      <c r="A140" t="s" s="2">
+      <c r="A140" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B140" t="s" s="2">
+      <c r="B140" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C140" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D140" t="s" s="2">
+      <c r="C140" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D140" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E140" t="s" s="2">
+      <c r="E140" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F140" t="s" s="2">
+      <c r="F140" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G140" t="s" s="2">
+      <c r="G140" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H140" t="s" s="2">
+      <c r="H140" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -4210,28 +4234,28 @@
       </c>
     </row>
     <row r="142">
-      <c r="B142" t="s" s="2">
+      <c r="B142" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C142" t="s" s="2">
+      <c r="C142" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D142" t="s" s="2">
+      <c r="D142" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E142" t="s" s="2">
+      <c r="E142" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F142" t="s" s="2">
+      <c r="F142" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G142" t="s" s="2">
+      <c r="G142" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H142" t="s" s="2">
+      <c r="H142" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I142" t="s" s="2">
+      <c r="I142" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -4319,10 +4343,10 @@
       <c r="I145">
         <f>((C145-C144)^2+(D145- D144)^2)^.5</f>
       </c>
-      <c r="J145" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K145" s="2" t="s">
+      <c r="J145" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K145" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L145" t="n">
@@ -4366,28 +4390,28 @@
       </c>
     </row>
     <row r="147">
-      <c r="A147" t="s" s="2">
+      <c r="A147" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B147" t="s" s="2">
+      <c r="B147" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C147" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D147" t="s" s="2">
+      <c r="C147" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D147" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E147" t="s" s="2">
+      <c r="E147" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F147" t="s" s="2">
+      <c r="F147" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G147" t="s" s="2">
+      <c r="G147" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H147" t="s" s="2">
+      <c r="H147" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -4412,28 +4436,28 @@
       </c>
     </row>
     <row r="149">
-      <c r="B149" t="s" s="2">
+      <c r="B149" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C149" t="s" s="2">
+      <c r="C149" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D149" t="s" s="2">
+      <c r="D149" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E149" t="s" s="2">
+      <c r="E149" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F149" t="s" s="2">
+      <c r="F149" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G149" t="s" s="2">
+      <c r="G149" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H149" t="s" s="2">
+      <c r="H149" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I149" t="s" s="2">
+      <c r="I149" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -4550,10 +4574,10 @@
       <c r="I153">
         <f>((C153-C152)^2+(D153- D152)^2)^.5</f>
       </c>
-      <c r="J153" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K153" s="2" t="s">
+      <c r="J153" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K153" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L153" t="n">
@@ -4597,28 +4621,28 @@
       </c>
     </row>
     <row r="155">
-      <c r="A155" t="s" s="2">
+      <c r="A155" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B155" t="s" s="2">
+      <c r="B155" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C155" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D155" t="s" s="2">
+      <c r="C155" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D155" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E155" t="s" s="2">
+      <c r="E155" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F155" t="s" s="2">
+      <c r="F155" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G155" t="s" s="2">
+      <c r="G155" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H155" t="s" s="2">
+      <c r="H155" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -4643,28 +4667,28 @@
       </c>
     </row>
     <row r="157">
-      <c r="B157" t="s" s="2">
+      <c r="B157" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C157" t="s" s="2">
+      <c r="C157" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D157" t="s" s="2">
+      <c r="D157" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E157" t="s" s="2">
+      <c r="E157" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F157" t="s" s="2">
+      <c r="F157" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G157" t="s" s="2">
+      <c r="G157" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H157" t="s" s="2">
+      <c r="H157" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I157" t="s" s="2">
+      <c r="I157" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -4810,10 +4834,10 @@
       <c r="I162">
         <f>((C162-C161)^2+(D162- D161)^2)^.5</f>
       </c>
-      <c r="J162" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K162" s="2" t="s">
+      <c r="J162" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K162" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L162" t="n">
@@ -4857,28 +4881,28 @@
       </c>
     </row>
     <row r="164">
-      <c r="A164" t="s" s="2">
+      <c r="A164" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B164" t="s" s="2">
+      <c r="B164" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C164" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D164" t="s" s="2">
+      <c r="C164" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D164" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E164" t="s" s="2">
+      <c r="E164" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F164" t="s" s="2">
+      <c r="F164" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G164" t="s" s="2">
+      <c r="G164" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H164" t="s" s="2">
+      <c r="H164" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -4903,28 +4927,28 @@
       </c>
     </row>
     <row r="166">
-      <c r="B166" t="s" s="2">
+      <c r="B166" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C166" t="s" s="2">
+      <c r="C166" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D166" t="s" s="2">
+      <c r="D166" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E166" t="s" s="2">
+      <c r="E166" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F166" t="s" s="2">
+      <c r="F166" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G166" t="s" s="2">
+      <c r="G166" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H166" t="s" s="2">
+      <c r="H166" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I166" t="s" s="2">
+      <c r="I166" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -5041,10 +5065,10 @@
       <c r="I170">
         <f>((C170-C169)^2+(D170- D169)^2)^.5</f>
       </c>
-      <c r="J170" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K170" s="2" t="s">
+      <c r="J170" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K170" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L170" t="n">
@@ -5088,28 +5112,28 @@
       </c>
     </row>
     <row r="172">
-      <c r="A172" t="s" s="2">
+      <c r="A172" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B172" t="s" s="2">
+      <c r="B172" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C172" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D172" t="s" s="2">
+      <c r="C172" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D172" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E172" t="s" s="2">
+      <c r="E172" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F172" t="s" s="2">
+      <c r="F172" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G172" t="s" s="2">
+      <c r="G172" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H172" t="s" s="2">
+      <c r="H172" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -5134,28 +5158,28 @@
       </c>
     </row>
     <row r="174">
-      <c r="B174" t="s" s="2">
+      <c r="B174" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C174" t="s" s="2">
+      <c r="C174" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D174" t="s" s="2">
+      <c r="D174" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E174" t="s" s="2">
+      <c r="E174" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F174" t="s" s="2">
+      <c r="F174" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G174" t="s" s="2">
+      <c r="G174" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H174" t="s" s="2">
+      <c r="H174" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I174" t="s" s="2">
+      <c r="I174" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -5243,10 +5267,10 @@
       <c r="I177">
         <f>((C177-C176)^2+(D177- D176)^2)^.5</f>
       </c>
-      <c r="J177" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K177" s="2" t="s">
+      <c r="J177" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K177" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L177" t="n">
@@ -5290,28 +5314,28 @@
       </c>
     </row>
     <row r="179">
-      <c r="A179" t="s" s="2">
+      <c r="A179" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B179" t="s" s="2">
+      <c r="B179" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C179" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D179" t="s" s="2">
+      <c r="C179" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D179" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E179" t="s" s="2">
+      <c r="E179" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F179" t="s" s="2">
+      <c r="F179" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G179" t="s" s="2">
+      <c r="G179" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H179" t="s" s="2">
+      <c r="H179" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -5336,28 +5360,28 @@
       </c>
     </row>
     <row r="181">
-      <c r="B181" t="s" s="2">
+      <c r="B181" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C181" t="s" s="2">
+      <c r="C181" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D181" t="s" s="2">
+      <c r="D181" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E181" t="s" s="2">
+      <c r="E181" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F181" t="s" s="2">
+      <c r="F181" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G181" t="s" s="2">
+      <c r="G181" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H181" t="s" s="2">
+      <c r="H181" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I181" t="s" s="2">
+      <c r="I181" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -5532,10 +5556,10 @@
       <c r="I187">
         <f>((C187-C186)^2+(D187- D186)^2)^.5</f>
       </c>
-      <c r="J187" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K187" s="2" t="s">
+      <c r="J187" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K187" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L187" t="n">
@@ -5579,28 +5603,28 @@
       </c>
     </row>
     <row r="189">
-      <c r="A189" t="s" s="2">
+      <c r="A189" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B189" t="s" s="2">
+      <c r="B189" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C189" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D189" t="s" s="2">
+      <c r="C189" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D189" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E189" t="s" s="2">
+      <c r="E189" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F189" t="s" s="2">
+      <c r="F189" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G189" t="s" s="2">
+      <c r="G189" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H189" t="s" s="2">
+      <c r="H189" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -5625,28 +5649,28 @@
       </c>
     </row>
     <row r="191">
-      <c r="B191" t="s" s="2">
+      <c r="B191" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C191" t="s" s="2">
+      <c r="C191" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D191" t="s" s="2">
+      <c r="D191" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E191" t="s" s="2">
+      <c r="E191" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F191" t="s" s="2">
+      <c r="F191" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G191" t="s" s="2">
+      <c r="G191" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H191" t="s" s="2">
+      <c r="H191" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I191" t="s" s="2">
+      <c r="I191" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -5734,10 +5758,10 @@
       <c r="I194">
         <f>((C194-C193)^2+(D194- D193)^2)^.5</f>
       </c>
-      <c r="J194" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K194" s="2" t="s">
+      <c r="J194" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K194" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L194" t="n">
@@ -5781,28 +5805,28 @@
       </c>
     </row>
     <row r="196">
-      <c r="A196" t="s" s="2">
+      <c r="A196" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B196" t="s" s="2">
+      <c r="B196" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C196" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D196" t="s" s="2">
+      <c r="C196" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D196" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E196" t="s" s="2">
+      <c r="E196" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F196" t="s" s="2">
+      <c r="F196" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G196" t="s" s="2">
+      <c r="G196" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H196" t="s" s="2">
+      <c r="H196" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -5827,28 +5851,28 @@
       </c>
     </row>
     <row r="198">
-      <c r="B198" t="s" s="2">
+      <c r="B198" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C198" t="s" s="2">
+      <c r="C198" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D198" t="s" s="2">
+      <c r="D198" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E198" t="s" s="2">
+      <c r="E198" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F198" t="s" s="2">
+      <c r="F198" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G198" t="s" s="2">
+      <c r="G198" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H198" t="s" s="2">
+      <c r="H198" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I198" t="s" s="2">
+      <c r="I198" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -5936,10 +5960,10 @@
       <c r="I201">
         <f>((C201-C200)^2+(D201- D200)^2)^.5</f>
       </c>
-      <c r="J201" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K201" s="2" t="s">
+      <c r="J201" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K201" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L201" t="n">
@@ -5983,28 +6007,28 @@
       </c>
     </row>
     <row r="203">
-      <c r="A203" t="s" s="2">
+      <c r="A203" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B203" t="s" s="2">
+      <c r="B203" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C203" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D203" t="s" s="2">
+      <c r="C203" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D203" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E203" t="s" s="2">
+      <c r="E203" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F203" t="s" s="2">
+      <c r="F203" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G203" t="s" s="2">
+      <c r="G203" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H203" t="s" s="2">
+      <c r="H203" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -6029,28 +6053,28 @@
       </c>
     </row>
     <row r="205">
-      <c r="B205" t="s" s="2">
+      <c r="B205" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C205" t="s" s="2">
+      <c r="C205" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D205" t="s" s="2">
+      <c r="D205" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E205" t="s" s="2">
+      <c r="E205" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F205" t="s" s="2">
+      <c r="F205" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G205" t="s" s="2">
+      <c r="G205" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H205" t="s" s="2">
+      <c r="H205" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I205" t="s" s="2">
+      <c r="I205" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -6138,10 +6162,10 @@
       <c r="I208">
         <f>((C208-C207)^2+(D208- D207)^2)^.5</f>
       </c>
-      <c r="J208" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K208" s="2" t="s">
+      <c r="J208" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K208" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L208" t="n">
@@ -6185,28 +6209,28 @@
       </c>
     </row>
     <row r="210">
-      <c r="A210" t="s" s="2">
+      <c r="A210" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B210" t="s" s="2">
+      <c r="B210" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C210" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D210" t="s" s="2">
+      <c r="C210" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D210" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E210" t="s" s="2">
+      <c r="E210" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F210" t="s" s="2">
+      <c r="F210" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G210" t="s" s="2">
+      <c r="G210" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H210" t="s" s="2">
+      <c r="H210" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -6231,28 +6255,28 @@
       </c>
     </row>
     <row r="212">
-      <c r="B212" t="s" s="2">
+      <c r="B212" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C212" t="s" s="2">
+      <c r="C212" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D212" t="s" s="2">
+      <c r="D212" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E212" t="s" s="2">
+      <c r="E212" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F212" t="s" s="2">
+      <c r="F212" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G212" t="s" s="2">
+      <c r="G212" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H212" t="s" s="2">
+      <c r="H212" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I212" t="s" s="2">
+      <c r="I212" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -6369,10 +6393,10 @@
       <c r="I216">
         <f>((C216-C215)^2+(D216- D215)^2)^.5</f>
       </c>
-      <c r="J216" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K216" s="2" t="s">
+      <c r="J216" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K216" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L216" t="n">
@@ -6416,28 +6440,28 @@
       </c>
     </row>
     <row r="218">
-      <c r="A218" t="s" s="2">
+      <c r="A218" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B218" t="s" s="2">
+      <c r="B218" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C218" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D218" t="s" s="2">
+      <c r="C218" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D218" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E218" t="s" s="2">
+      <c r="E218" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F218" t="s" s="2">
+      <c r="F218" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G218" t="s" s="2">
+      <c r="G218" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H218" t="s" s="2">
+      <c r="H218" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -6462,28 +6486,28 @@
       </c>
     </row>
     <row r="220">
-      <c r="B220" t="s" s="2">
+      <c r="B220" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C220" t="s" s="2">
+      <c r="C220" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D220" t="s" s="2">
+      <c r="D220" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E220" t="s" s="2">
+      <c r="E220" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F220" t="s" s="2">
+      <c r="F220" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G220" t="s" s="2">
+      <c r="G220" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H220" t="s" s="2">
+      <c r="H220" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I220" t="s" s="2">
+      <c r="I220" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -6600,10 +6624,10 @@
       <c r="I224">
         <f>((C224-C223)^2+(D224- D223)^2)^.5</f>
       </c>
-      <c r="J224" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K224" s="2" t="s">
+      <c r="J224" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K224" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L224" t="n">
@@ -6647,28 +6671,28 @@
       </c>
     </row>
     <row r="226">
-      <c r="A226" t="s" s="2">
+      <c r="A226" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B226" t="s" s="2">
+      <c r="B226" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C226" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D226" t="s" s="2">
+      <c r="C226" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D226" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E226" t="s" s="2">
+      <c r="E226" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F226" t="s" s="2">
+      <c r="F226" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G226" t="s" s="2">
+      <c r="G226" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H226" t="s" s="2">
+      <c r="H226" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -6693,28 +6717,28 @@
       </c>
     </row>
     <row r="228">
-      <c r="B228" t="s" s="2">
+      <c r="B228" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C228" t="s" s="2">
+      <c r="C228" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D228" t="s" s="2">
+      <c r="D228" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E228" t="s" s="2">
+      <c r="E228" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F228" t="s" s="2">
+      <c r="F228" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G228" t="s" s="2">
+      <c r="G228" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H228" t="s" s="2">
+      <c r="H228" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I228" t="s" s="2">
+      <c r="I228" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -6831,10 +6855,10 @@
       <c r="I232">
         <f>((C232-C231)^2+(D232- D231)^2)^.5</f>
       </c>
-      <c r="J232" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K232" s="2" t="s">
+      <c r="J232" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K232" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L232" t="n">
@@ -6878,28 +6902,28 @@
       </c>
     </row>
     <row r="234">
-      <c r="A234" t="s" s="2">
+      <c r="A234" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B234" t="s" s="2">
+      <c r="B234" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C234" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D234" t="s" s="2">
+      <c r="C234" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D234" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E234" t="s" s="2">
+      <c r="E234" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F234" t="s" s="2">
+      <c r="F234" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G234" t="s" s="2">
+      <c r="G234" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H234" t="s" s="2">
+      <c r="H234" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -6924,28 +6948,28 @@
       </c>
     </row>
     <row r="236">
-      <c r="B236" t="s" s="2">
+      <c r="B236" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C236" t="s" s="2">
+      <c r="C236" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D236" t="s" s="2">
+      <c r="D236" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E236" t="s" s="2">
+      <c r="E236" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F236" t="s" s="2">
+      <c r="F236" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G236" t="s" s="2">
+      <c r="G236" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H236" t="s" s="2">
+      <c r="H236" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I236" t="s" s="2">
+      <c r="I236" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -7033,10 +7057,10 @@
       <c r="I239">
         <f>((C239-C238)^2+(D239- D238)^2)^.5</f>
       </c>
-      <c r="J239" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K239" s="2" t="s">
+      <c r="J239" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K239" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L239" t="n">
@@ -7080,28 +7104,28 @@
       </c>
     </row>
     <row r="241">
-      <c r="A241" t="s" s="2">
+      <c r="A241" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B241" t="s" s="2">
+      <c r="B241" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C241" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D241" t="s" s="2">
+      <c r="C241" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D241" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E241" t="s" s="2">
+      <c r="E241" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F241" t="s" s="2">
+      <c r="F241" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G241" t="s" s="2">
+      <c r="G241" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H241" t="s" s="2">
+      <c r="H241" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -7126,28 +7150,28 @@
       </c>
     </row>
     <row r="243">
-      <c r="B243" t="s" s="2">
+      <c r="B243" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C243" t="s" s="2">
+      <c r="C243" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D243" t="s" s="2">
+      <c r="D243" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E243" t="s" s="2">
+      <c r="E243" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F243" t="s" s="2">
+      <c r="F243" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G243" t="s" s="2">
+      <c r="G243" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H243" t="s" s="2">
+      <c r="H243" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I243" t="s" s="2">
+      <c r="I243" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -7235,10 +7259,10 @@
       <c r="I246">
         <f>((C246-C245)^2+(D246- D245)^2)^.5</f>
       </c>
-      <c r="J246" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K246" s="2" t="s">
+      <c r="J246" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K246" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L246" t="n">
